--- a/src/models/baselines/SVM/results/synthetic/topology/tv1/metrics.xlsx
+++ b/src/models/baselines/SVM/results/synthetic/topology/tv1/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8282828282828283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8282828282828283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6192607897153352</v>
+        <v>0.9378634833180288</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.8232323232323232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.8232323232323232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6236225895316805</v>
+        <v>0.9371747780838691</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8535353535353535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8535353535353535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6263391490664217</v>
+        <v>0.966215182124273</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.8484848484848486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6735537190082646</v>
+        <v>0.9602081420263238</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.8737373737373737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.8737373737373737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6364784205693296</v>
+        <v>0.9638812366085094</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5804637281910009</v>
+        <v>0.9305555555555557</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.494949494949495</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.494949494949495</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6605831037649219</v>
+        <v>0.9569941842669115</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.8686868686868688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6091597796143251</v>
+        <v>0.968357820630548</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6224364860728496</v>
+        <v>0.9594811753902662</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6047597183960821</v>
+        <v>0.9733700642791553</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4368686868686869</v>
+        <v>0.8479797979797979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4368686868686869</v>
+        <v>0.8479797979797979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6256657483930211</v>
+        <v>0.9554101622283442</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03460404846985602</v>
+        <v>0.02920281040640469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03460404846985602</v>
+        <v>0.0292028104064047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02674614123507942</v>
+        <v>0.01482856488352026</v>
       </c>
     </row>
   </sheetData>
